--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EC5BFF-09AB-471B-B74A-071225C97638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B4EC5BFF-09AB-471B-B74A-071225C97638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9ACE34AE-9CC9-4906-819E-42BD93DF5F39}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Rstudio PBC</t>
   </si>
   <si>
-    <t>Worked on accessibility improvement projects for Rstudio Server and Desktop IDE, Shiny and Rmarkdown.</t>
-  </si>
-  <si>
     <t>Made selectInput widget accessible by patching selectize-a11y-plugin JS library. \href{https://github.com/rstudio/shiny/pull/2993}{(Shiny PR \#2993)}</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Authored technical documents on \href{https://support.rstudio.com/hc/en-us/articles/360049776974-Using-RStudio-Server-in-Windows-WSL2}{how to run RStudio Server via Windows Subsystem for Linux} and \href{https://support.rstudio.com/hc/en-us/articles/360045612413-RStudio-Screen-Reader-Support}{RStudio Screen Reader Support.}</t>
+  </si>
+  <si>
+    <t>{\it{Worked on accessibility improvement projects for Rstudio Server and Desktop IDE, Shiny and Rmarkdown}}</t>
   </si>
 </sst>
 </file>
@@ -429,11 +429,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,12 +460,12 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -467,117 +477,117 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -597,9 +607,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>1</v>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B4EC5BFF-09AB-471B-B74A-071225C97638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9ACE34AE-9CC9-4906-819E-42BD93DF5F39}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B4EC5BFF-09AB-471B-B74A-071225C97638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E4060E0-5B82-4324-A4A6-A07A80F0630F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>what</t>
   </si>
@@ -37,79 +37,22 @@
     <t>why</t>
   </si>
   <si>
-    <t>ICE Soft</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Co-founded and managed a start-up company to develop Android-based navigation App and assistive technology for blind people.</t>
-  </si>
-  <si>
-    <t>Jul. 2010 - Jun. 2011</t>
-  </si>
-  <si>
-    <t>Co-Founder and Project Manager</t>
-  </si>
-  <si>
-    <t>May. 2020 - Aug. 2020</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>Rstudio PBC</t>
-  </si>
-  <si>
-    <t>Made selectInput widget accessible by patching selectize-a11y-plugin JS library. \href{https://github.com/rstudio/shiny/pull/2993}{(Shiny PR \#2993)}</t>
-  </si>
-  <si>
-    <t>Made dateInput and dateRangeInput widgets accessible for screen readers. \href{https://github.com/rstudio/shiny/pull/2978}{(Shiny PR \#2978)}</t>
-  </si>
-  <si>
-    <t>Fixed keyboard accessibility for file picker button. \href{https://github.com/rstudio/shiny/pull/2937}{(Shiny PR \#2937)}</t>
-  </si>
-  <si>
-    <t>Added semantic landmarks for main and sidebarPanels via aria roles. \href{https://github.com/rstudio/shiny/pull/3009}{(Shiny PR \#3009)}</t>
-  </si>
-  <si>
-    <t>Developed a way to pass document-level lang attribute to Shiny apps. \href{https://github.com/rstudio/shiny/pull/2920}{(Shiny PR \#2920)}</t>
-  </si>
-  <si>
-    <t>Developed JS code to resolve accessibility issue in highlighted code blocks of HTML output produced by Pandoc for screen reader users. \href{https://github.com/rstudio/rmarkdown/pull/1833}{(Rmarkdown PR \#1833)}</t>
-  </si>
-  <si>
-    <t>Software Engineer Intern</t>
-  </si>
-  <si>
-    <t>Added the number\_sections argument to the word\_document() output format. \href{https://github.com/rstudio/rmarkdown/pull/1869}{(Rmarkdown PR \#1869)}</t>
-  </si>
-  <si>
-    <t>Added the customizable lang attribute to ioslides\_presentation output. \href{https://github.com/rstudio/rmarkdown/pull/1841}{(Rmarkdown PR \#1841)}</t>
-  </si>
-  <si>
-    <t>Made dynamic output objects accessible to be announced to assistive technologies in real time via aria-live. \href{https://github.com/rstudio/shiny/pull/3002}{(Shiny PR \#3002)}</t>
-  </si>
-  <si>
-    <t>Patched Shiny's bootstrap dependencies to improve navigation of Shiny apps for screen-reader and keyboard users (alert, tooltip, popover, modal dialog, dropdown, tab Panel, collapse, and carousel elements). \href{https://github.com/rstudio/shiny/pull/2911}{(Shiny PR \#2911)}</t>
-  </si>
-  <si>
-    <t>Applied for and received a \$30,000 fund from the city of Seoul.</t>
-  </si>
-  <si>
     <t>highlight</t>
   </si>
   <si>
-    <t>Made fontawesome and glyphicon readable to assistive technologies in Shiny UI. \href{https://github.com/rstudio/shiny/pull/2917}{(Shiny PR \#2917)}</t>
-  </si>
-  <si>
-    <t>Developed a way to pass dynamic alt attribute for reactive plot objects in Shiny UI. \href{https://github.com/rstudio/shiny/pull/3006}{(Shiny PR \#3006)}</t>
-  </si>
-  <si>
-    <t>Authored technical documents on \href{https://support.rstudio.com/hc/en-us/articles/360049776974-Using-RStudio-Server-in-Windows-WSL2}{how to run RStudio Server via Windows Subsystem for Linux} and \href{https://support.rstudio.com/hc/en-us/articles/360045612413-RStudio-Screen-Reader-Support}{RStudio Screen Reader Support.}</t>
-  </si>
-  <si>
-    <t>{\it{Worked on accessibility improvement projects for Rstudio Server and Desktop IDE, Shiny and Rmarkdown}}</t>
+    <t>Svalbard Wildlife Expeditions AS</t>
+  </si>
+  <si>
+    <t>Freelance tour guide</t>
+  </si>
+  <si>
+    <t>May - Jul 2015</t>
+  </si>
+  <si>
+    <t>Longyearbyen, Svalbard, Norway</t>
+  </si>
+  <si>
+    <t>Guided tours on the history and wildlife of Svalbard</t>
   </si>
 </sst>
 </file>
@@ -427,19 +370,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,158 +403,26 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17">
         <v>1</v>
       </c>
     </row>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B4EC5BFF-09AB-471B-B74A-071225C97638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E4060E0-5B82-4324-A4A6-A07A80F0630F}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAAC30E4-DEFC-466A-9F8E-B9575696F245}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="education" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>what</t>
   </si>
@@ -37,16 +37,70 @@
     <t>why</t>
   </si>
   <si>
-    <t>highlight</t>
+    <t>Freelance Ecological Consultant</t>
+  </si>
+  <si>
+    <t>2012 -2014</t>
+  </si>
+  <si>
+    <t>BUND, Friends of the Earth Germany</t>
+  </si>
+  <si>
+    <t>Bremen, Germany</t>
+  </si>
+  <si>
+    <t>Contracted to develop and evaluate nature friendly methods of ditch clearance in FFH sites of high importance for the aquatic fauna</t>
+  </si>
+  <si>
+    <t>EcoSURV.Hein - Angewandte Fisch- &amp; Gewässerökologie</t>
+  </si>
+  <si>
+    <t>Contracted to assist in electro fishing surveys</t>
+  </si>
+  <si>
+    <t>ÖKOLOGIS Umweltanalyse + Landschaftsplanung GmbH</t>
+  </si>
+  <si>
+    <t>Contracted to map selected breeding birds in the FFH-site Werderland</t>
+  </si>
+  <si>
+    <t>2009 -2011</t>
+  </si>
+  <si>
+    <t>Bioconsult SH GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Husum, Germany</t>
+  </si>
+  <si>
+    <t>Contracted to assist in offshore maintainance of harbour porpoise detectors, seabird at sea counts, and radar image assessment for quantitative migratory bird counts used in environmental impact assessments</t>
+  </si>
+  <si>
+    <t>National Park Warden</t>
+  </si>
+  <si>
+    <t>Oct 2008 - Jun 2009</t>
+  </si>
+  <si>
+    <t>Schutzstation-Wattenmeer e.V., Germany</t>
+  </si>
+  <si>
+    <t>Hörnum, Sylt, Germany</t>
+  </si>
+  <si>
+    <t>In fullfilment of  the German Civilian Service</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Freelance tour guide</t>
+  </si>
+  <si>
+    <t>May - Jul 2015</t>
   </si>
   <si>
     <t>Svalbard Wildlife Expeditions AS</t>
-  </si>
-  <si>
-    <t>Freelance tour guide</t>
-  </si>
-  <si>
-    <t>May - Jul 2015</t>
   </si>
   <si>
     <t>Longyearbyen, Svalbard, Norway</t>
@@ -59,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +121,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -84,15 +438,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +673,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -136,7 +685,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -183,6 +732,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -218,6 +784,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,20 +953,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="174" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -394,39 +976,142 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+    <sortCondition ref="C2:C7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAAC30E4-DEFC-466A-9F8E-B9575696F245}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7473B0D-C545-4585-919B-3C3596841E63}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>what</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Contracted to develop and evaluate nature friendly methods of ditch clearance in FFH sites of high importance for the aquatic fauna</t>
   </si>
   <si>
-    <t>EcoSURV.Hein - Angewandte Fisch- &amp; Gewässerökologie</t>
-  </si>
-  <si>
     <t>Contracted to assist in electro fishing surveys</t>
   </si>
   <si>
@@ -107,6 +104,15 @@
   </si>
   <si>
     <t>Guided tours on the history and wildlife of Svalbard</t>
+  </si>
+  <si>
+    <t>Responsiblilities included to oversee several scientific monitoring programs (e.g migratory bird counts and OSPAR litter monitoring), outreach and environmental education, as well as local coordination with nature conservation authorities</t>
+  </si>
+  <si>
+    <t>Civilian service was extended by two internships periods, Aug 2008 - Sep 2008 and Jun 2009 - Aug 2009</t>
+  </si>
+  <si>
+    <t>EcoSURV.Hein - Angewandte Fisch- &amp; Gewaesseroekologie</t>
   </si>
 </sst>
 </file>
@@ -953,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -990,122 +996,132 @@
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>2013</v>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+      <c r="B6" s="1">
+        <v>2013</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7473B0D-C545-4585-919B-3C3596841E63}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42F8911F-DA9F-496B-9A1B-8F13E42DD3D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,16 +103,16 @@
     <t>Longyearbyen, Svalbard, Norway</t>
   </si>
   <si>
-    <t>Guided tours on the history and wildlife of Svalbard</t>
-  </si>
-  <si>
     <t>Responsiblilities included to oversee several scientific monitoring programs (e.g migratory bird counts and OSPAR litter monitoring), outreach and environmental education, as well as local coordination with nature conservation authorities</t>
   </si>
   <si>
-    <t>Civilian service was extended by two internships periods, Aug 2008 - Sep 2008 and Jun 2009 - Aug 2009</t>
-  </si>
-  <si>
     <t>EcoSURV.Hein - Angewandte Fisch- &amp; Gewaesseroekologie</t>
+  </si>
+  <si>
+    <t>Contracted for guided tours about the history and wildlife of Svalbard</t>
+  </si>
+  <si>
+    <t>The civilian service was extended by two internships periods, Aug 2008 - Sep 2008 and Jun 2009 - Aug 2009</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,12 +1016,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1121,7 +1121,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
